--- a/Data/ICs.xlsx
+++ b/Data/ICs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="214">
   <si>
     <t>Part Number</t>
   </si>
@@ -69,14 +69,608 @@
     <t>Manufacturer Part Number 3</t>
   </si>
   <si>
-    <t>MSS500-0000</t>
+    <t>LINEAR-0001</t>
+  </si>
+  <si>
+    <t>LOGIC-0001</t>
+  </si>
+  <si>
+    <t>MCU-0001</t>
+  </si>
+  <si>
+    <t>POWER-0001</t>
+  </si>
+  <si>
+    <t>Adjustable Slew</t>
+  </si>
+  <si>
+    <t>LM308</t>
+  </si>
+  <si>
+    <t>Single Opamp</t>
+  </si>
+  <si>
+    <t>Norton Amps</t>
+  </si>
+  <si>
+    <t>LM3900</t>
+  </si>
+  <si>
+    <t>Dual Opamp</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>LM1458</t>
+  </si>
+  <si>
+    <t>GP JFET</t>
+  </si>
+  <si>
+    <t>TL082</t>
+  </si>
+  <si>
+    <t>Low Power JFET</t>
+  </si>
+  <si>
+    <t>TL062</t>
+  </si>
+  <si>
+    <t>LM358</t>
+  </si>
+  <si>
+    <t>NJM13600</t>
+  </si>
+  <si>
+    <t>Dual OTA</t>
+  </si>
+  <si>
+    <t>Lower Voffset</t>
+  </si>
+  <si>
+    <t>NJM13700</t>
+  </si>
+  <si>
+    <t>CA3080</t>
+  </si>
+  <si>
+    <t>Single OTA</t>
+  </si>
+  <si>
+    <t>"Audio"</t>
+  </si>
+  <si>
+    <t>NJM4580</t>
+  </si>
+  <si>
+    <t>High Current</t>
+  </si>
+  <si>
+    <t>NJM4556</t>
+  </si>
+  <si>
+    <t>Higher Drive</t>
+  </si>
+  <si>
+    <t>NJM4560</t>
+  </si>
+  <si>
+    <t>Low Noise</t>
+  </si>
+  <si>
+    <t>NJM2068</t>
+  </si>
+  <si>
+    <t>LM741</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>LM321</t>
+  </si>
+  <si>
+    <t>LM324</t>
+  </si>
+  <si>
+    <t>Quad Opamp</t>
+  </si>
+  <si>
+    <t>NE5532</t>
+  </si>
+  <si>
+    <t>JRC4558</t>
+  </si>
+  <si>
+    <t>JFET Input</t>
+  </si>
+  <si>
+    <t>TL074</t>
+  </si>
+  <si>
+    <t>TL072</t>
+  </si>
+  <si>
+    <t>VCA</t>
+  </si>
+  <si>
+    <t>THAT2181</t>
+  </si>
+  <si>
+    <t>Trimmable</t>
+  </si>
+  <si>
+    <t>Dual VCA</t>
+  </si>
+  <si>
+    <t>THAT2162</t>
+  </si>
+  <si>
+    <t>THAT2180</t>
+  </si>
+  <si>
+    <t>Pre-trimmed</t>
+  </si>
+  <si>
+    <t>V2181</t>
+  </si>
+  <si>
+    <t>"Low Noise"</t>
+  </si>
+  <si>
+    <t>V2162</t>
+  </si>
+  <si>
+    <t>Quad VCA</t>
+  </si>
+  <si>
+    <t>V2164</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
+  </si>
+  <si>
+    <t>THAT4301</t>
+  </si>
+  <si>
+    <t>"Analog Engine"</t>
+  </si>
+  <si>
+    <t>THAT4320</t>
+  </si>
+  <si>
+    <t>Low Voltage / Low Power</t>
+  </si>
+  <si>
+    <t>THAT4305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Cost </t>
+  </si>
+  <si>
+    <t>LM4250</t>
+  </si>
+  <si>
+    <t>Programmbalbe</t>
+  </si>
+  <si>
+    <t>Voltage Reg</t>
+  </si>
+  <si>
+    <t>LM317</t>
+  </si>
+  <si>
+    <t>Adjustable Positive</t>
+  </si>
+  <si>
+    <t>LM337</t>
+  </si>
+  <si>
+    <t>Adjustable Negative</t>
+  </si>
+  <si>
+    <t>LM7805</t>
+  </si>
+  <si>
+    <t>Fixed +5V</t>
+  </si>
+  <si>
+    <t>LM7905</t>
+  </si>
+  <si>
+    <t>Fixed -5V</t>
+  </si>
+  <si>
+    <t>LM7809</t>
+  </si>
+  <si>
+    <t>LM7812</t>
+  </si>
+  <si>
+    <t>LM7815</t>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>LM339</t>
+  </si>
+  <si>
+    <t>FET Coupler</t>
+  </si>
+  <si>
+    <t>H11F1</t>
+  </si>
+  <si>
+    <t>Opto FET</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>CD4007</t>
+  </si>
+  <si>
+    <t>Dual Pairs Plus Inverter</t>
+  </si>
+  <si>
+    <t>CD4051</t>
+  </si>
+  <si>
+    <t>8-to-1 MUX</t>
+  </si>
+  <si>
+    <t>CD4052</t>
+  </si>
+  <si>
+    <t>Dual 4-to-1 MUX</t>
+  </si>
+  <si>
+    <t>74HC165</t>
+  </si>
+  <si>
+    <t>8-in-1 out Shift reg</t>
+  </si>
+  <si>
+    <t>74HC595</t>
+  </si>
+  <si>
+    <t>1-in-8 out shift reg</t>
+  </si>
+  <si>
+    <t>LOGIC-0002</t>
+  </si>
+  <si>
+    <t>LOGIC-0003</t>
+  </si>
+  <si>
+    <t>LOGIC-0004</t>
+  </si>
+  <si>
+    <t>LOGIC-0005</t>
+  </si>
+  <si>
+    <t>LOGIC-0006</t>
+  </si>
+  <si>
+    <t>LINEAR-0002</t>
+  </si>
+  <si>
+    <t>LINEAR-0003</t>
+  </si>
+  <si>
+    <t>LINEAR-0004</t>
+  </si>
+  <si>
+    <t>LINEAR-0005</t>
+  </si>
+  <si>
+    <t>LINEAR-0006</t>
+  </si>
+  <si>
+    <t>LINEAR-0007</t>
+  </si>
+  <si>
+    <t>LINEAR-0008</t>
+  </si>
+  <si>
+    <t>LINEAR-0009</t>
+  </si>
+  <si>
+    <t>LINEAR-0010</t>
+  </si>
+  <si>
+    <t>LINEAR-0011</t>
+  </si>
+  <si>
+    <t>LINEAR-0012</t>
+  </si>
+  <si>
+    <t>LINEAR-0013</t>
+  </si>
+  <si>
+    <t>LINEAR-0014</t>
+  </si>
+  <si>
+    <t>LINEAR-0015</t>
+  </si>
+  <si>
+    <t>LINEAR-0016</t>
+  </si>
+  <si>
+    <t>LINEAR-0017</t>
+  </si>
+  <si>
+    <t>LINEAR-0018</t>
+  </si>
+  <si>
+    <t>LINEAR-0019</t>
+  </si>
+  <si>
+    <t>LINEAR-0020</t>
+  </si>
+  <si>
+    <t>LINEAR-0021</t>
+  </si>
+  <si>
+    <t>LINEAR-0022</t>
+  </si>
+  <si>
+    <t>LINEAR-0023</t>
+  </si>
+  <si>
+    <t>LINEAR-0024</t>
+  </si>
+  <si>
+    <t>LINEAR-0025</t>
+  </si>
+  <si>
+    <t>LINEAR-0026</t>
+  </si>
+  <si>
+    <t>LINEAR-0027</t>
+  </si>
+  <si>
+    <t>LINEAR-0028</t>
+  </si>
+  <si>
+    <t>LINEAR-0029</t>
+  </si>
+  <si>
+    <t>LINEAR-0030</t>
+  </si>
+  <si>
+    <t>LINEAR-0031</t>
+  </si>
+  <si>
+    <t>Opamp</t>
+  </si>
+  <si>
+    <t>Dual</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>NE5532DR</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>NE5532D8G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+/-5V to 15V </t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>Dual Opamp Low Noise 10MHz GBP</t>
+  </si>
+  <si>
+    <t>Opamp Dual</t>
+  </si>
+  <si>
+    <t>..\Schematic\basic_components.SchLib</t>
+  </si>
+  <si>
+    <t>..\PCB\basic_footprints.PcbLib</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>296-13622-1-ND</t>
+  </si>
+  <si>
+    <t>NE5532D8GOS-ND</t>
+  </si>
+  <si>
+    <t>OPA2134UA</t>
+  </si>
+  <si>
+    <t>+/-2.5V to 18V</t>
+  </si>
+  <si>
+    <t>Low Noise, Low Distortion, FET input</t>
+  </si>
+  <si>
+    <t>Dual Audio Opamp Low Distortion 8MHZ GBP</t>
+  </si>
+  <si>
+    <t>OPA2134UA-ND</t>
+  </si>
+  <si>
+    <t>TL972IDR</t>
+  </si>
+  <si>
+    <t>+/-2.7V to 12V</t>
+  </si>
+  <si>
+    <t>Low Voltage, Low Noise, Low Distortion, Rail to Rail</t>
+  </si>
+  <si>
+    <t>Dual Opamp Low Noise/Distortion/Voltage 12MHz GBP Rail-to-Rail</t>
+  </si>
+  <si>
+    <t>296-22842-1-ND</t>
+  </si>
+  <si>
+    <t>RC4558ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual Opamp Low Noise 3MHZ GBP </t>
+  </si>
+  <si>
+    <t>296-33540-5-ND</t>
+  </si>
+  <si>
+    <t>RC4580IDR</t>
+  </si>
+  <si>
+    <t>+/-2V to 18V</t>
+  </si>
+  <si>
+    <t>Low Noise, Low Distortion, 50mA output</t>
+  </si>
+  <si>
+    <t>Dual Opamp Low Noise/Distortion 12MHz GBP</t>
+  </si>
+  <si>
+    <t>296-15367-1-ND</t>
+  </si>
+  <si>
+    <t>OPA1612AIDR</t>
+  </si>
+  <si>
+    <t>+/-2.25V to 18V</t>
+  </si>
+  <si>
+    <t>Ultralow Noise, Ultralow Distortion, Rail to Rail</t>
+  </si>
+  <si>
+    <t>Dual Audio Opamp Ultralow Noise/Distortion 40MHz GBP Rail-to-Rail</t>
+  </si>
+  <si>
+    <t>296-39098-1-ND</t>
+  </si>
+  <si>
+    <t>LDO</t>
+  </si>
+  <si>
+    <t>Fixed Negative</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>L7912CV-DG</t>
+  </si>
+  <si>
+    <t>MC7912BTG</t>
+  </si>
+  <si>
+    <t>Up to -35V</t>
+  </si>
+  <si>
+    <t>TO-220-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Negative LDO 1A @ -12V </t>
+  </si>
+  <si>
+    <t>LDO Negative</t>
+  </si>
+  <si>
+    <t>..\Schematic\mss_components.SchLib</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>511-L7912CV-DG</t>
+  </si>
+  <si>
+    <t>863-MC7912BTG</t>
+  </si>
+  <si>
+    <t>Fixed Positive</t>
+  </si>
+  <si>
+    <t>L7812CV</t>
+  </si>
+  <si>
+    <t>MC7812CTG</t>
+  </si>
+  <si>
+    <t>Up to 35V</t>
+  </si>
+  <si>
+    <t>Fixed Positive LDO 1 A @ 12V</t>
+  </si>
+  <si>
+    <t>LDO Positive</t>
+  </si>
+  <si>
+    <t>511-L7812CV</t>
+  </si>
+  <si>
+    <t>863-MC7812CTG</t>
+  </si>
+  <si>
+    <t>POWER-0002</t>
+  </si>
+  <si>
+    <t>POWER-0003</t>
+  </si>
+  <si>
+    <t>POWER-0004</t>
+  </si>
+  <si>
+    <t>POWER-0005</t>
+  </si>
+  <si>
+    <t>POWER-0006</t>
+  </si>
+  <si>
+    <t>POWER-0007</t>
+  </si>
+  <si>
+    <t>POWER-0008</t>
+  </si>
+  <si>
+    <t>POWER-0009</t>
+  </si>
+  <si>
+    <t>LINEAR-0032</t>
+  </si>
+  <si>
+    <t>LINEAR-0033</t>
+  </si>
+  <si>
+    <t>LINEAR-0034</t>
+  </si>
+  <si>
+    <t>LINEAR-0035</t>
+  </si>
+  <si>
+    <t>LINEAR-0036</t>
+  </si>
+  <si>
+    <t>LINEAR-0037</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -86,10 +680,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -116,17 +706,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -401,15 +1021,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +1089,732 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -480,9 +1824,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -545,6 +1891,87 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -552,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -607,6 +2034,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -614,15 +2046,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,6 +2102,217 @@
       </c>
       <c r="O1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ICs.xlsx
+++ b/Data/ICs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt.sterling\Documents\MSS\library\trunk\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="262">
   <si>
     <t>Part Number</t>
   </si>
@@ -442,9 +447,6 @@
     <t>Opamp Dual</t>
   </si>
   <si>
-    <t>..\Schematic\basic_components.SchLib</t>
-  </si>
-  <si>
     <t>..\PCB\basic_footprints.PcbLib</t>
   </si>
   <si>
@@ -547,9 +549,6 @@
     <t>LDO Negative</t>
   </si>
   <si>
-    <t>..\Schematic\mss_components.SchLib</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
@@ -776,13 +775,46 @@
   </si>
   <si>
     <t>296-1285-1-ND</t>
+  </si>
+  <si>
+    <t>LINEAR-0016</t>
+  </si>
+  <si>
+    <t>LINEAR-0017</t>
+  </si>
+  <si>
+    <t>LINEAR-0035</t>
+  </si>
+  <si>
+    <t>LINEAR-0036</t>
+  </si>
+  <si>
+    <t>LINEAR-0037</t>
+  </si>
+  <si>
+    <t>..\Schematic\Symbols.SchLib</t>
+  </si>
+  <si>
+    <t>..\PCB\footprints.PcbLib</t>
+  </si>
+  <si>
+    <t>Multiplexor</t>
+  </si>
+  <si>
+    <t>Shift Register</t>
+  </si>
+  <si>
+    <t>MCU-0002</t>
+  </si>
+  <si>
+    <t>MCU-0003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -872,6 +904,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1130,25 +1170,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
@@ -1165,7 +1206,7 @@
     <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15">
+    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,13 +1214,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1206,10 +1247,10 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
@@ -1218,10 +1259,10 @@
         <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T1" t="s">
         <v>13</v>
@@ -1230,10 +1271,10 @@
         <v>14</v>
       </c>
       <c r="V1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -1242,7 +1283,7 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1">
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1253,55 +1294,55 @@
         <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>140</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="O2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>134</v>
       </c>
       <c r="Q2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>106</v>
       </c>
@@ -1312,113 +1353,117 @@
         <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="J3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="N3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" t="s">
         <v>226</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" t="s">
-        <v>227</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="O3" t="s">
-        <v>228</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>134</v>
       </c>
       <c r="Q3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="O4" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>134</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
@@ -1426,113 +1471,117 @@
         <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>140</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="O5" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="R5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="O6" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>134</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1544,10 +1593,16 @@
         <v>27</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
@@ -1556,23 +1611,31 @@
       <c r="P7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
@@ -1581,9 +1644,9 @@
       <c r="P8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1">
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -1598,19 +1661,19 @@
         <v>41</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>140</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1619,30 +1682,30 @@
         <v>134</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>134</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
@@ -1663,13 +1726,13 @@
         <v>140</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -1681,10 +1744,10 @@
         <v>135</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>136</v>
@@ -1693,15 +1756,15 @@
         <v>137</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>47</v>
@@ -1714,13 +1777,22 @@
         <v>44</v>
       </c>
       <c r="F11" s="3"/>
+      <c r="G11" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1">
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
@@ -1733,13 +1805,19 @@
         <v>44</v>
       </c>
       <c r="F12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1">
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>21</v>
@@ -1750,13 +1828,19 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1">
+    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
@@ -1769,13 +1853,19 @@
         <v>41</v>
       </c>
       <c r="F14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1">
+    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
@@ -1788,13 +1878,19 @@
         <v>39</v>
       </c>
       <c r="F15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1">
+    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
@@ -1807,13 +1903,19 @@
         <v>37</v>
       </c>
       <c r="F16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
@@ -1822,25 +1924,25 @@
         <v>36</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>140</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1849,18 +1951,18 @@
         <v>134</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>35</v>
@@ -1871,13 +1973,19 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>31</v>
@@ -1890,13 +1998,19 @@
         <v>32</v>
       </c>
       <c r="F19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>31</v>
@@ -1907,13 +2021,19 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>24</v>
@@ -1924,13 +2044,19 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>24</v>
@@ -1941,13 +2067,19 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
@@ -1960,13 +2092,19 @@
         <v>22</v>
       </c>
       <c r="F23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
@@ -1979,13 +2117,19 @@
         <v>19</v>
       </c>
       <c r="F24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>53</v>
@@ -1998,13 +2142,19 @@
         <v>55</v>
       </c>
       <c r="F25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>56</v>
@@ -2015,13 +2165,19 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>53</v>
@@ -2034,13 +2190,19 @@
         <v>59</v>
       </c>
       <c r="F27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>53</v>
@@ -2053,13 +2215,19 @@
         <v>61</v>
       </c>
       <c r="F28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>56</v>
@@ -2070,13 +2238,19 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>63</v>
@@ -2087,13 +2261,19 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>65</v>
@@ -2106,13 +2286,19 @@
         <v>67</v>
       </c>
       <c r="F31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>65</v>
@@ -2125,13 +2311,19 @@
         <v>69</v>
       </c>
       <c r="F32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>65</v>
@@ -2144,13 +2336,19 @@
         <v>71</v>
       </c>
       <c r="F33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>21</v>
@@ -2163,13 +2361,19 @@
         <v>73</v>
       </c>
       <c r="F34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>85</v>
@@ -2180,40 +2384,46 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="3" customFormat="1" ht="12.75">
+    <row r="36" spans="1:15" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>140</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -2222,45 +2432,45 @@
         <v>134</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" ht="12.75">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>140</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -2269,45 +2479,45 @@
         <v>134</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" ht="12.75">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>140</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -2316,13 +2526,13 @@
         <v>134</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2332,19 +2542,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15">
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2615,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2416,8 +2628,17 @@
       <c r="D2" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+      <c r="F2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -2431,12 +2652,23 @@
         <v>92</v>
       </c>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+      <c r="F3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>93</v>
       </c>
@@ -2444,12 +2676,23 @@
         <v>94</v>
       </c>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+      <c r="F4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>95</v>
       </c>
@@ -2457,12 +2700,23 @@
         <v>96</v>
       </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+      <c r="F5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>97</v>
       </c>
@@ -2470,12 +2724,23 @@
         <v>98</v>
       </c>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+      <c r="F6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>99</v>
       </c>
@@ -2483,6 +2748,15 @@
         <v>100</v>
       </c>
       <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2491,16 +2765,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C65536"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2544,22 +2822,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B3" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B4" s="6" t="s">
-        <v>213</v>
+      <c r="E4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2569,14 +2880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -2584,13 +2895,17 @@
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2598,13 +2913,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2631,10 +2946,10 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
@@ -2643,10 +2958,10 @@
         <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T1" t="s">
         <v>13</v>
@@ -2655,18 +2970,18 @@
         <v>14</v>
       </c>
       <c r="V1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -2677,13 +2992,16 @@
         <v>75</v>
       </c>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="H2" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -2694,13 +3012,16 @@
         <v>77</v>
       </c>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="H3" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -2711,13 +3032,16 @@
         <v>79</v>
       </c>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="H4" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -2728,13 +3052,16 @@
         <v>81</v>
       </c>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="H5" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -2743,13 +3070,16 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="H6" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
@@ -2758,117 +3088,120 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" s="3" customFormat="1">
+      <c r="H7" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="M8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>136</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>136</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ICs.xlsx
+++ b/Data/ICs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13830" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13830"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="278">
   <si>
     <t>Part Number</t>
   </si>
@@ -808,13 +808,61 @@
   </si>
   <si>
     <t>MCU-0003</t>
+  </si>
+  <si>
+    <t>LINEAR-0038</t>
+  </si>
+  <si>
+    <t>Bass Enhancer</t>
+  </si>
+  <si>
+    <t>M51134</t>
+  </si>
+  <si>
+    <t>7-15V, 4.5-5.5V</t>
+  </si>
+  <si>
+    <t>5V regulator, Opamp, VCA</t>
+  </si>
+  <si>
+    <t>Sub-harmonic synthesizer for Bass Enhancement</t>
+  </si>
+  <si>
+    <t>M51134P</t>
+  </si>
+  <si>
+    <t>DIP-20</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>Small Bear Electronics</t>
+  </si>
+  <si>
+    <t>Footprint Ref 1</t>
+  </si>
+  <si>
+    <t>Footprint Path 1</t>
+  </si>
+  <si>
+    <t>Footprint Ref 2</t>
+  </si>
+  <si>
+    <t>Footprint Path 2</t>
+  </si>
+  <si>
+    <t>DIP-8</t>
+  </si>
+  <si>
+    <t>DIP-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -824,14 +872,23 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -860,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -870,6 +927,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1195,18 +1254,19 @@
     <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,58 +1292,64 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>272</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>273</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>199</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>200</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>201</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>202</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>203</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>204</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+    </row>
+    <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1314,35 +1380,41 @@
       <c r="J2" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>106</v>
       </c>
@@ -1373,35 +1445,41 @@
       <c r="J3" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>225</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>226</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>227</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>107</v>
       </c>
@@ -1432,35 +1510,41 @@
       <c r="J4" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>108</v>
       </c>
@@ -1491,35 +1575,41 @@
       <c r="J5" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -1550,35 +1640,41 @@
       <c r="J6" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="S6" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="U6" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>110</v>
       </c>
@@ -1603,15 +1699,17 @@
       <c r="J7" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="P7" s="6"/>
       <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -1636,15 +1734,17 @@
       <c r="J8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="P8" s="6"/>
       <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>112</v>
       </c>
@@ -1675,35 +1775,37 @@
       <c r="J9" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
@@ -1734,35 +1836,37 @@
       <c r="J10" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
@@ -1786,11 +1890,13 @@
       <c r="J11" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>115</v>
       </c>
@@ -1811,11 +1917,13 @@
       <c r="J12" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>116</v>
       </c>
@@ -1834,11 +1942,13 @@
       <c r="J13" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>117</v>
       </c>
@@ -1859,11 +1969,13 @@
       <c r="J14" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>118</v>
       </c>
@@ -1884,11 +1996,13 @@
       <c r="J15" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>119</v>
       </c>
@@ -1909,11 +2023,13 @@
       <c r="J16" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>251</v>
       </c>
@@ -1944,23 +2060,25 @@
       <c r="J17" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>252</v>
       </c>
@@ -1979,11 +2097,13 @@
       <c r="J18" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>120</v>
       </c>
@@ -2004,11 +2124,13 @@
       <c r="J19" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>121</v>
       </c>
@@ -2027,11 +2149,13 @@
       <c r="J20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>122</v>
       </c>
@@ -2050,11 +2174,13 @@
       <c r="J21" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>123</v>
       </c>
@@ -2073,11 +2199,13 @@
       <c r="J22" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>124</v>
       </c>
@@ -2098,11 +2226,13 @@
       <c r="J23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>125</v>
       </c>
@@ -2123,11 +2253,13 @@
       <c r="J24" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>126</v>
       </c>
@@ -2148,11 +2280,13 @@
       <c r="J25" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>127</v>
       </c>
@@ -2171,11 +2305,13 @@
       <c r="J26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>128</v>
       </c>
@@ -2196,11 +2332,13 @@
       <c r="J27" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>129</v>
       </c>
@@ -2221,11 +2359,13 @@
       <c r="J28" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>130</v>
       </c>
@@ -2244,11 +2384,13 @@
       <c r="J29" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>131</v>
       </c>
@@ -2267,11 +2409,13 @@
       <c r="J30" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>132</v>
       </c>
@@ -2292,11 +2436,13 @@
       <c r="J31" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>133</v>
       </c>
@@ -2317,11 +2463,13 @@
       <c r="J32" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>193</v>
       </c>
@@ -2342,11 +2490,13 @@
       <c r="J33" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -2367,11 +2517,13 @@
       <c r="J34" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>195</v>
       </c>
@@ -2390,11 +2542,13 @@
       <c r="J35" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>253</v>
       </c>
@@ -2425,23 +2579,23 @@
       <c r="J36" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>254</v>
       </c>
@@ -2472,23 +2626,23 @@
       <c r="J37" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>255</v>
       </c>
@@ -2519,20 +2673,70 @@
       <c r="J38" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K38" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3" t="s">
+      <c r="K38" s="10"/>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I39" t="s">
+        <v>269</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>270</v>
+      </c>
+      <c r="O39" t="s">
+        <v>268</v>
+      </c>
+      <c r="P39" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q39">
+        <v>1539</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +3087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
